--- a/xlsx/赫尔曼·梅尔维尔_intext.xlsx
+++ b/xlsx/赫尔曼·梅尔维尔_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>赫尔曼·梅尔维尔</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_赫尔曼·梅尔维尔</t>
+    <t>政策_政策_美国_赫尔曼·梅尔维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%B8%AB</t>
   </si>
   <si>
-    <t>教師</t>
+    <t>教师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%AF%A8%E8%A8%98</t>
   </si>
   <si>
-    <t>白鯨記</t>
+    <t>白鲸记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -101,9 +101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A9%E5%AD%90</t>
   </si>
   <si>
@@ -119,25 +116,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E8%8C%B6%E8%91%89%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波士頓茶葉事件</t>
+    <t>波士顿茶叶事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E4%B8%80%E7%A5%9E%E6%95%99%E6%B4%BE</t>
@@ -155,19 +152,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%9C%83</t>
   </si>
   <si>
-    <t>長老會</t>
+    <t>长老会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC</t>
   </si>
   <si>
-    <t>奧爾巴尼</t>
+    <t>奥尔巴尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%8D%89</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%86%E8%88%B9</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%95%E9%AF%A8</t>
   </si>
   <si>
-    <t>捕鯨</t>
+    <t>捕鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%81%A9%E8%A7%92</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%96%A9%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬克薩斯群島</t>
+    <t>马克萨斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B8%8C%E6%8F%90%E5%B2%9B</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%99%9F</t>
   </si>
   <si>
-    <t>美國號</t>
+    <t>美国号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%92%92%E5%B0%BC%E5%B0%94%C2%B7%E9%9C%8D%E6%A1%91</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>莎士比亞</t>
+    <t>莎士比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%AD%97</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
   </si>
   <si>
-    <t>海關</t>
+    <t>海关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F</t>
   </si>
   <si>
-    <t>心臟</t>
+    <t>心脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>劇本</t>
+    <t>剧本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%A7%86</t>
@@ -335,19 +332,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%81%E5%A4%A7%E5%B0%8F%E8%AA%AA%E5%AE%B6%E5%8F%8A%E5%85%B6%E4%BB%A3%E8%A1%A8%E4%BD%9C</t>
   </si>
   <si>
-    <t>世界十大小說家及其代表作</t>
+    <t>世界十大小说家及其代表作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%80%AB%C2%B7%E5%9D%A1</t>
   </si>
   <si>
-    <t>愛倫·坡</t>
+    <t>爱伦·坡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E5%90%90%E6%BA%AB</t>
   </si>
   <si>
-    <t>馬克吐溫</t>
+    <t>马克吐温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AF%87%E5%B0%8F%E8%AF%B4</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%BD%98%C2%B7%E6%B2%83%E4%BC%A6</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%88%BE%E7%B6%AD%E7%88%BE%E9%AF%A8</t>
   </si>
   <si>
-    <t>梅爾維爾鯨</t>
+    <t>梅尔维尔鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Nature</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1257,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1283,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1312,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1341,10 +1338,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1370,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1399,10 +1396,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1428,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1457,10 +1454,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1486,10 +1483,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1515,10 +1512,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1544,10 +1541,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1573,10 +1570,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1602,10 +1599,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1631,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1660,10 +1657,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1689,10 +1686,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1718,10 +1715,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1747,10 +1744,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -1776,10 +1773,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1805,10 +1802,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1834,10 +1831,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1863,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1892,10 +1889,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1921,10 +1918,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1950,10 +1947,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1979,10 +1976,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2008,10 +2005,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2037,10 +2034,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2066,10 +2063,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2095,10 +2092,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2124,10 +2121,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2153,10 +2150,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2182,10 +2179,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2211,10 +2208,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2240,10 +2237,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2269,10 +2266,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2298,10 +2295,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2327,10 +2324,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2356,10 +2353,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2385,10 +2382,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2414,10 +2411,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2443,10 +2440,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2472,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2501,10 +2498,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2530,10 +2527,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2559,10 +2556,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2588,10 +2585,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2617,10 +2614,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2646,10 +2643,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2675,10 +2672,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2704,10 +2701,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2733,10 +2730,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2762,10 +2759,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -2791,10 +2788,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2820,10 +2817,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2849,10 +2846,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2878,10 +2875,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2907,10 +2904,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2936,10 +2933,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2965,10 +2962,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2994,10 +2991,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3023,10 +3020,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3052,10 +3049,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3081,10 +3078,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3110,10 +3107,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3139,10 +3136,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3168,10 +3165,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3197,10 +3194,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3226,10 +3223,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
